--- a/mbs-perturbation/greedy/welm/nearmiss/greedy_welm_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/greedy/welm/nearmiss/greedy_welm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4705882352941177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.325</v>
+        <v>0.3884297520661157</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.275</v>
+        <v>0.5619834710743801</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.5681818181818181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.325</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.4852941176470589</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0.4752066115702479</v>
       </c>
     </row>
   </sheetData>
